--- a/biology/Zoologie/Aspitha_agenoria/Aspitha_agenoria.xlsx
+++ b/biology/Zoologie/Aspitha_agenoria/Aspitha_agenoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspitha agenoria est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aspitha agenoria a été nommé par William Chapman Hewitson en 1876[1].
-Nom vernaculaire
-Aspitha agenoria se nomme Red-lobed Firetip ou Red-collared Firetip en anglais[2],[3].
-Sous-espèces
-Aspitha agenoria agenoria; présent au Pérou.
-Aspitha agenoria cruor (Druce, 1908); présent au Pérou.
-Aspitha agenoria sanies (Druce, 1908); présent en Bolivie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspitha agenoria a été nommé par William Chapman Hewitson en 1876.
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +553,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspitha agenoria se nomme Red-lobed Firetip ou Red-collared Firetip en anglais,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aspitha_agenoria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aspitha_agenoria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aspitha agenoria agenoria; présent au Pérou.
+Aspitha agenoria cruor (Druce, 1908); présent au Pérou.
+Aspitha agenoria sanies (Druce, 1908); présent en Bolivie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aspitha_agenoria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aspitha_agenoria</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aspitha agenoria est un papillon  au corps trapu marron ou noir, aux extrémités de la tête et de l'abdomen rouge. 
 Les ailes sont de couleur marron ou noire, avec aux ailes postérieures une grosse tache formée de poils rouge à l'angle anal. Les ailes antérieures peuvent être barrées ou non d'une bande blanche veinée.
@@ -556,68 +642,111 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Aspitha_agenoria</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aspitha_agenoria</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspitha agenoria est présent en Colombie, au Surinam, en Bolivie et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Aspitha_agenoria</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aspitha_agenoria</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspitha agenoria est présent en Colombie, au Surinam, en Bolivie et au Pérou[1],[3].
-Biotope
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Aspitha agenoria, sur Wikimedia CommonsAspitha agenoria, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aspitha_agenoria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aspitha_agenoria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
